--- a/Tinachain数值.xlsx
+++ b/Tinachain数值.xlsx
@@ -1,36 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Tinachain\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AEA70A-F988-4651-8F97-005BB8B4DA7D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210" xr2:uid="{63BC773B-7717-4942-9B84-86E8AE3488B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15210"/>
   </bookViews>
   <sheets>
-    <sheet name="Tinachain数值" sheetId="1" r:id="rId1"/>
+    <sheet name="通证数值" sheetId="2" r:id="rId1"/>
+    <sheet name="Tinachain数值" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>2019年</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,16 +133,119 @@
   <si>
     <t>股权奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通证数值</t>
+  </si>
+  <si>
+    <t>总量</t>
+  </si>
+  <si>
+    <t>分配比例</t>
+  </si>
+  <si>
+    <t>团队（15%）</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>投票周期</t>
+  </si>
+  <si>
+    <t>86400秒</t>
+  </si>
+  <si>
+    <t>超级节点数量</t>
+  </si>
+  <si>
+    <t>23个，小于23个按照实际数量为准</t>
+  </si>
+  <si>
+    <t>超级节点出块时间</t>
+  </si>
+  <si>
+    <t>10秒</t>
+  </si>
+  <si>
+    <t>超级节点出块奖励截止年份</t>
+  </si>
+  <si>
+    <t>出块奖励规则</t>
+  </si>
+  <si>
+    <t>每4年减半</t>
+  </si>
+  <si>
+    <t>黑名单获取时间间隔</t>
+  </si>
+  <si>
+    <t>300秒</t>
+  </si>
+  <si>
+    <t>超时时间间隔</t>
+  </si>
+  <si>
+    <t>单位</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>wei</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1 wei</t>
+  </si>
+  <si>
+    <t>Kwei (babbage)</t>
+  </si>
+  <si>
+    <t>1e3 wei</t>
+  </si>
+  <si>
+    <t>Mwei (lovelace)</t>
+  </si>
+  <si>
+    <t>1e6 wei</t>
+  </si>
+  <si>
+    <t>Gwei (shannon)</t>
+  </si>
+  <si>
+    <t>1e9 wei</t>
+  </si>
+  <si>
+    <t>microether (szabo)</t>
+  </si>
+  <si>
+    <t>1e12 wei</t>
+  </si>
+  <si>
+    <t>milliether (finney)</t>
+  </si>
+  <si>
+    <t>1e15 wei</t>
+  </si>
+  <si>
+    <t>Cware</t>
+  </si>
+  <si>
+    <t>1e18 wei</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +270,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2F2F2F"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -245,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -273,22 +368,43 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -310,11 +426,9 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
+      <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -336,11 +450,9 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
+      <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -362,11 +474,9 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
+      <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -388,11 +498,9 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0.000000_);[Red]\(0.000000\)"/>
+      <numFmt numFmtId="176" formatCode="0.000000_);[Red]\(0.000000\)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -414,27 +522,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -458,8 +545,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -483,8 +568,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -508,8 +591,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -533,8 +614,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <name val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -544,41 +623,50 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="微软雅黑"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4EE093CB-3B4B-42BF-96E6-27CCEBF059AB}" name="表1" displayName="表1" ref="B2:I26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5">
-  <autoFilter ref="B2:I26" xr:uid="{BBF3AE47-1BE5-4272-91D0-5E159C2EABC9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B2:I26" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B2:I26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{4BE7AD4A-BA20-4E3D-86F2-B489DA142068}" name="年份" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{A4ED1C4C-73D2-45FC-A3B4-0FD4B8CB6259}" name="每年总分币数量" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9FCCB6BC-08CD-4914-BA49-A8FC25494FAF}" name="每年矿工奖励" dataDxfId="7">
+    <tableColumn id="1" name="年份" dataDxfId="7"/>
+    <tableColumn id="2" name="每年总分币数量" dataDxfId="6"/>
+    <tableColumn id="3" name="每年矿工奖励" dataDxfId="5">
       <calculatedColumnFormula>C3*0.8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{1D524E2B-0B92-4B84-9D72-AEE4569383CE}" name="每年股权奖励" dataDxfId="6">
+    <tableColumn id="4" name="每年股权奖励" dataDxfId="4">
       <calculatedColumnFormula>C3*0.2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5BCD2454-3972-49CA-AD8C-67B717F0BEBB}" name="每10秒矿工奖励" dataDxfId="3">
+    <tableColumn id="5" name="每10秒矿工奖励" dataDxfId="3">
       <calculatedColumnFormula>D3/(365*24*60*6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{684EF493-BBE8-4618-BBA4-4C0B5414B1E5}" name="每天矿工奖励" dataDxfId="2">
+    <tableColumn id="6" name="每天矿工奖励" dataDxfId="2">
       <calculatedColumnFormula>F3*6*60*24</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E66E6105-F187-4C20-8C55-585A774DEC53}" name="每10秒股权奖励" dataDxfId="1">
+    <tableColumn id="7" name="每10秒股权奖励" dataDxfId="1">
       <calculatedColumnFormula>E3/(365*24*60*6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{193B8F4F-4270-437B-B737-9DABE2D78720}" name="每天股权奖励" dataDxfId="0">
+    <tableColumn id="8" name="每天股权奖励" dataDxfId="0">
       <calculatedColumnFormula>H3*6*60*24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -629,7 +717,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -681,7 +769,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -875,21 +963,234 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6107869-A7D0-437A-9FA1-E4AD0DE224D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B3:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="17.25">
+      <c r="B3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="17.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="17.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="2:4" ht="17.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" spans="2:4" ht="17.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="17.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="17.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="17.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="17.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="17.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="17.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="17.25">
+      <c r="B17" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="17.25">
+      <c r="B18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="17.25">
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="17.25">
+      <c r="B20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="21">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="17.25">
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="21">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="17.25">
+      <c r="B22" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="21">
+        <v>1000000000000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="17.25">
+      <c r="B23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1000000000000000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="17.25">
+      <c r="B24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="21">
+        <v>1E+18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="B3:B14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.25" style="1" bestFit="1" customWidth="1"/>
@@ -902,7 +1203,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:9">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
@@ -928,7 +1229,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -961,7 +1262,7 @@
         <v>48706.22684931507</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:9">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -994,7 +1295,7 @@
         <v>48706.22684931507</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1328,7 @@
         <v>48706.22684931507</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:9">
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
@@ -1060,7 +1361,7 @@
         <v>48706.22684931507</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1394,7 @@
         <v>24353.113424657535</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:9">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1126,7 +1427,7 @@
         <v>24353.113424657535</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1159,7 +1460,7 @@
         <v>24353.113424657535</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:9">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
@@ -1192,7 +1493,7 @@
         <v>24353.113424657535</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1526,7 @@
         <v>12176.556712328767</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9">
       <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1559,7 @@
         <v>12176.556712328767</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9">
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
@@ -1291,7 +1592,7 @@
         <v>12176.556712328767</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:9">
       <c r="B14" s="4" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1625,7 @@
         <v>12176.556712328767</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:9">
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
@@ -1357,7 +1658,7 @@
         <v>6088.2783561643837</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:9">
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1691,7 @@
         <v>6088.2783561643837</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9">
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1724,7 @@
         <v>6088.2783561643837</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9">
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1757,7 @@
         <v>6088.2783561643837</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9">
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
@@ -1489,7 +1790,7 @@
         <v>3044.1391780821918</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9">
       <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1823,7 @@
         <v>3044.1391780821918</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9">
       <c r="B21" s="7" t="s">
         <v>18</v>
       </c>
@@ -1555,7 +1856,7 @@
         <v>3044.1391780821918</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9">
       <c r="B22" s="7" t="s">
         <v>19</v>
       </c>
@@ -1588,7 +1889,7 @@
         <v>3044.1391780821918</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9">
       <c r="B23" s="6" t="s">
         <v>20</v>
       </c>
@@ -1620,7 +1921,7 @@
         <v>1522.0695890410959</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9">
       <c r="B24" s="6" t="s">
         <v>21</v>
       </c>
@@ -1652,7 +1953,7 @@
         <v>1522.0695890410959</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9">
       <c r="B25" s="6" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1985,7 @@
         <v>1522.0695890410959</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9">
       <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
@@ -1716,7 +2017,7 @@
         <v>1522.1769863013699</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9">
       <c r="C28" s="1" t="s">
         <v>24</v>
       </c>
